--- a/excel_files/problems_types.xlsx
+++ b/excel_files/problems_types.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC10504-7F02-4838-8A70-8B51BABBAF19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="types" sheetId="2" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>type</t>
   </si>
@@ -47,12 +46,45 @@
   </si>
   <si>
     <t>duration</t>
+  </si>
+  <si>
+    <t>Switches of light not working</t>
+  </si>
+  <si>
+    <t>Turned off randomly</t>
+  </si>
+  <si>
+    <t>Remote doesn’t work properly</t>
+  </si>
+  <si>
+    <t>Buttons not working</t>
+  </si>
+  <si>
+    <t>Turns on by itself</t>
+  </si>
+  <si>
+    <t>Not heating</t>
+  </si>
+  <si>
+    <t>Not cooling</t>
+  </si>
+  <si>
+    <t>Not working</t>
+  </si>
+  <si>
+    <t>Leaking</t>
+  </si>
+  <si>
+    <t>Weird Smell</t>
+  </si>
+  <si>
+    <t>No lights</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -85,7 +117,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -366,32 +398,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="75.109375" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="75.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -399,10 +431,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -410,10 +442,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -424,7 +456,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -433,6 +465,132 @@
       </c>
       <c r="C5" s="1">
         <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/problems_types.xlsx
+++ b/excel_files/problems_types.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
   <si>
     <t>type</t>
   </si>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A15" sqref="A15:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -588,9 +588,169 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
       <c r="C17" s="1">
-        <v>20</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/excel_files/problems_types.xlsx
+++ b/excel_files/problems_types.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="types" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>type</t>
   </si>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -214,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -391,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A16"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -585,171 +585,6 @@
         <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1">
         <v>30</v>
       </c>
     </row>
